--- a/Solarhalterung_EInkaufen.xlsx
+++ b/Solarhalterung_EInkaufen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B386E59-765F-4D7A-8C1E-C2E141551A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB14F31-130A-413F-AB6F-165155C59E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35A08112-F35C-4875-841E-52ED1426BB4E}"/>
   </bookViews>
@@ -338,16 +338,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -379,13 +376,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>512379</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>7060</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>184469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -422,13 +419,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>453259</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2134</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>183969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -466,13 +463,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>282466</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4318</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>6239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -509,13 +506,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>366110</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6512</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>6570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -553,13 +550,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>365051</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>4269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3747</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532BE17D-1BF3-45DC-B7DB-EAB7B8CFA15D}">
-  <dimension ref="B1:J62"/>
+  <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,12 +920,6 @@
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -943,14 +934,14 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -961,16 +952,12 @@
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -986,9 +973,15 @@
         <v>9</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1004,15 +997,9 @@
         <v>9</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -1028,9 +1015,15 @@
         <v>12</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1044,15 +1037,9 @@
         <v>42</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -1065,9 +1052,16 @@
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1080,299 +1074,303 @@
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="10" t="s">
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="5"/>
-      <c r="H22" s="1" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+      <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+      <c r="H20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="H23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" s="5"/>
-      <c r="H26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="5"/>
-      <c r="H28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+      <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" s="5"/>
-      <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32" s="5"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="H32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" s="5"/>
-      <c r="H33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" s="5"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="H34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" s="5"/>
-      <c r="H35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="5"/>
-      <c r="H38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+      <c r="H36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="J36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" s="5"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="H39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" s="5"/>
-      <c r="H40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" s="5"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="H41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5"/>
-      <c r="H42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" s="5"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="5"/>
-      <c r="H44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G46" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
+      <c r="H43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G47" s="5"/>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>38</v>
+      <c r="H47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G48" s="5"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="5"/>
-      <c r="H49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="5"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G51" s="5"/>
-      <c r="H51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="6"/>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="H61" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="I62" t="s">
+      <c r="I48" t="s">
         <v>29</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J48" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Solarhalterung_EInkaufen.xlsx
+++ b/Solarhalterung_EInkaufen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB14F31-130A-413F-AB6F-165155C59E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07B974D-0DA6-4DE9-ACCC-843602EEE9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35A08112-F35C-4875-841E-52ED1426BB4E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Artikel</t>
   </si>
@@ -179,16 +179,39 @@
   </si>
   <si>
     <t>M3</t>
+  </si>
+  <si>
+    <t>Feder</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Rechts</t>
+  </si>
+  <si>
+    <t>https://webshop.alcomex.de/schenkelfeder-edelstahl-o-3-00x26-00x15-75-mm-tor2130r</t>
+  </si>
+  <si>
+    <t>https://webshop.alcomex.de/schenkelfeder-edelstahl-o-3-00x26-00x15-75-mm-tor2130l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,10 +358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -353,8 +377,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -893,7 +924,7 @@
   <dimension ref="B1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E20" activeCellId="1" sqref="E17 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1111,18 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
         <v>18</v>
@@ -1091,7 +1134,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="9" t="s">
         <v>24</v>
@@ -1375,7 +1431,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{04196F12-B38D-4D23-9552-5949D6BD5D2C}"/>
+    <hyperlink ref="E11" r:id="rId2" xr:uid="{EC904A78-A1DA-4C55-B8EF-DA453DAC47FF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Solarhalterung_EInkaufen.xlsx
+++ b/Solarhalterung_EInkaufen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07B974D-0DA6-4DE9-ACCC-843602EEE9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3371E-B31C-444C-8AB3-C832E7A99E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35A08112-F35C-4875-841E-52ED1426BB4E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Artikel</t>
   </si>
@@ -58,18 +58,9 @@
     <t>Bestell Links/Anmerkungen</t>
   </si>
   <si>
-    <t>4mm^2 x 5m</t>
-  </si>
-  <si>
-    <t>2.5mm^2 x 0.3m</t>
-  </si>
-  <si>
     <t>Kurzschlusssichere Isolierung</t>
   </si>
   <si>
-    <t>50mm^2 x 5m</t>
-  </si>
-  <si>
     <t>Sicherung</t>
   </si>
   <si>
@@ -194,6 +185,21 @@
   </si>
   <si>
     <t>https://webshop.alcomex.de/schenkelfeder-edelstahl-o-3-00x26-00x15-75-mm-tor2130l</t>
+  </si>
+  <si>
+    <t>Z-Wineklblech / Davits</t>
+  </si>
+  <si>
+    <t>M3x10_Senk</t>
+  </si>
+  <si>
+    <t>2.5mm² x 0.3m</t>
+  </si>
+  <si>
+    <t>50mm² x 5m</t>
+  </si>
+  <si>
+    <t>4mm² x 5m</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -357,12 +363,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -382,6 +401,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -407,13 +442,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>512379</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>7060</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>184469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -450,13 +485,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>453259</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2134</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>183969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -494,13 +529,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>282466</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>7227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4318</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>6239</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -536,15 +571,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>366110</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3820</xdr:rowOff>
+      <xdr:colOff>354204</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6512</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6570</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1869841</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -567,8 +602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10186385" y="1956445"/>
-          <a:ext cx="1516827" cy="1336250"/>
+          <a:off x="10176860" y="2373164"/>
+          <a:ext cx="1515637" cy="1311820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,6 +648,50 @@
         <a:xfrm>
           <a:off x="365051" y="404319"/>
           <a:ext cx="1515121" cy="961369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586153</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1865434</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD2607C-E9C3-B9DD-B514-3E9374736403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10411557" y="8684379"/>
+          <a:ext cx="1279281" cy="933563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532BE17D-1BF3-45DC-B7DB-EAB7B8CFA15D}">
-  <dimension ref="B1:J48"/>
+  <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" activeCellId="1" sqref="E17 E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +1013,7 @@
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="91.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -957,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -966,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,14 +1057,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3">
         <v>4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -995,23 +1075,23 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1019,13 +1099,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3"/>
@@ -1034,38 +1114,38 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="3"/>
@@ -1074,360 +1154,407 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G14" s="5"/>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G16" s="5"/>
-      <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="5"/>
-      <c r="H20" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23" s="5"/>
-      <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5"/>
-      <c r="H27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30" s="5"/>
-      <c r="H30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31" s="5"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32" s="5"/>
-      <c r="H32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" s="5"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" s="5"/>
-      <c r="H34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" s="5"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="5"/>
-      <c r="H36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="H35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="2" t="s">
+    </row>
+    <row r="36" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" s="5"/>
-      <c r="H39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" s="5"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="H40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" s="5"/>
-      <c r="H41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="5"/>
-      <c r="H43" s="2" t="s">
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="43" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5"/>
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
       <c r="H47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="14"/>
+      <c r="I54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
